--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B4BAF1-4F18-9D49-AB47-01732401492A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C4F0F6-3C24-BD43-90B4-565355E55B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34060" yWindow="-560" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37560" yWindow="1960" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
@@ -1897,11 +1897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G333" sqref="G333"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="B295" sqref="B295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1922,8 +1921,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1929,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1939,7 +1937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1947,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1955,7 +1953,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1963,7 +1961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1971,12 +1969,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2011,7 +2009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -2037,7 +2035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -2057,7 +2055,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2077,7 +2075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2097,7 +2095,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2117,7 +2115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2137,7 +2135,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -2157,7 +2155,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2177,7 +2175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2197,7 +2195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2217,7 +2215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -2237,7 +2235,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2257,10 +2255,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2268,7 +2266,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2276,7 +2274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2284,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2292,7 +2290,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2300,7 +2298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2308,12 +2306,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2348,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -2374,7 +2372,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -2394,7 +2392,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2414,7 +2412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2434,7 +2432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2454,7 +2452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -2474,7 +2472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -2494,7 +2492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -2514,7 +2512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2534,7 +2532,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -2554,7 +2552,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -2574,7 +2572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -2594,10 +2592,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2603,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2613,7 +2611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2621,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -2629,7 +2627,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2637,7 +2635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2645,12 +2643,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2685,7 +2683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -2711,7 +2709,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -2731,7 +2729,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2751,7 +2749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -2771,7 +2769,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2791,7 +2789,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2811,7 +2809,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2831,7 +2829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2851,7 +2849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -2871,7 +2869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2891,7 +2889,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2911,7 +2909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2931,10 +2929,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -2942,7 +2940,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -2950,7 +2948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2958,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -2966,7 +2964,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -2974,7 +2972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2982,12 +2980,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3022,7 +3020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -3048,7 +3046,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -3068,7 +3066,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -3088,7 +3086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -3108,7 +3106,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>54</v>
       </c>
@@ -3128,7 +3126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -3148,7 +3146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -3168,7 +3166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -3188,7 +3186,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -3208,7 +3206,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>62</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>65</v>
       </c>
@@ -3248,7 +3246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -3268,13 +3266,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -3282,7 +3280,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3290,7 +3288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3298,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -3306,7 +3304,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3314,7 +3312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3322,12 +3320,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3362,7 +3360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>122</v>
       </c>
@@ -3388,7 +3386,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>123</v>
       </c>
@@ -3408,7 +3406,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -3428,7 +3426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>52</v>
       </c>
@@ -3448,7 +3446,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -3468,7 +3466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -3488,7 +3486,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>58</v>
       </c>
@@ -3508,7 +3506,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -3528,7 +3526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>45</v>
       </c>
@@ -3548,7 +3546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>62</v>
       </c>
@@ -3568,7 +3566,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>65</v>
       </c>
@@ -3588,7 +3586,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>70</v>
       </c>
@@ -3608,10 +3606,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B108" s="5"/>
     </row>
-    <row r="109" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -3619,7 +3617,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3627,7 +3625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3635,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -3643,7 +3641,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3651,7 +3649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3659,12 +3657,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -3699,7 +3697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>124</v>
       </c>
@@ -3725,7 +3723,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>125</v>
       </c>
@@ -3745,7 +3743,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -3765,7 +3763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>52</v>
       </c>
@@ -3785,7 +3783,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>54</v>
       </c>
@@ -3805,7 +3803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>56</v>
       </c>
@@ -3825,7 +3823,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>58</v>
       </c>
@@ -3845,7 +3843,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -3865,7 +3863,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>45</v>
       </c>
@@ -3885,7 +3883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>62</v>
       </c>
@@ -3905,7 +3903,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>65</v>
       </c>
@@ -3925,7 +3923,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>70</v>
       </c>
@@ -3945,10 +3943,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B129" s="5"/>
     </row>
-    <row r="130" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -3956,7 +3954,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -3964,7 +3962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -3972,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -3980,7 +3978,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -3988,7 +3986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -3996,12 +3994,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4036,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>126</v>
       </c>
@@ -4062,7 +4060,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -4082,7 +4080,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -4102,7 +4100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>52</v>
       </c>
@@ -4122,7 +4120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>54</v>
       </c>
@@ -4142,7 +4140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>56</v>
       </c>
@@ -4162,7 +4160,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>58</v>
       </c>
@@ -4182,7 +4180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>60</v>
       </c>
@@ -4202,7 +4200,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -4222,7 +4220,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>62</v>
       </c>
@@ -4242,7 +4240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>65</v>
       </c>
@@ -4262,7 +4260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>70</v>
       </c>
@@ -4282,10 +4280,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B150" s="5"/>
     </row>
-    <row r="151" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -4293,7 +4291,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4301,7 +4299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4309,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -4317,7 +4315,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4325,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4333,12 +4331,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4373,7 +4371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>128</v>
       </c>
@@ -4399,7 +4397,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>129</v>
       </c>
@@ -4419,7 +4417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>33</v>
       </c>
@@ -4439,7 +4437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>52</v>
       </c>
@@ -4459,7 +4457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>54</v>
       </c>
@@ -4479,7 +4477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>56</v>
       </c>
@@ -4499,7 +4497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>58</v>
       </c>
@@ -4519,7 +4517,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>60</v>
       </c>
@@ -4539,7 +4537,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>45</v>
       </c>
@@ -4559,7 +4557,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>62</v>
       </c>
@@ -4579,7 +4577,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>65</v>
       </c>
@@ -4599,7 +4597,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>70</v>
       </c>
@@ -4619,13 +4617,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B171" s="5"/>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
@@ -4633,7 +4631,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -4641,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -4649,7 +4647,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -4657,7 +4655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -4665,7 +4663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -4673,7 +4671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>28</v>
       </c>
@@ -4681,7 +4679,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>22</v>
       </c>
@@ -4689,12 +4687,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -4723,7 +4721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>125</v>
       </c>
@@ -4747,7 +4745,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>138</v>
       </c>
@@ -4770,7 +4768,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -4821,10 +4819,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>0</v>
       </c>
@@ -4832,7 +4830,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -4840,7 +4838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -4848,7 +4846,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -4856,7 +4854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -4864,7 +4862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -4872,7 +4870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>28</v>
       </c>
@@ -4880,7 +4878,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>22</v>
       </c>
@@ -4888,12 +4886,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>9</v>
       </c>
@@ -4922,7 +4920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>117</v>
       </c>
@@ -4946,7 +4944,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>138</v>
       </c>
@@ -4969,7 +4967,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>33</v>
       </c>
@@ -5020,10 +5018,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B202" s="4"/>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>0</v>
       </c>
@@ -5031,7 +5029,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -5039,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2</v>
       </c>
@@ -5047,7 +5045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -5055,7 +5053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -5063,7 +5061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -5071,7 +5069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>28</v>
       </c>
@@ -5079,7 +5077,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>22</v>
       </c>
@@ -5087,12 +5085,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>9</v>
       </c>
@@ -5121,7 +5119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>127</v>
       </c>
@@ -5145,7 +5143,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>138</v>
       </c>
@@ -5168,7 +5166,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>33</v>
       </c>
@@ -5219,10 +5217,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B217" s="4"/>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>0</v>
       </c>
@@ -5230,7 +5228,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -5238,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -5246,7 +5244,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5254,7 +5252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -5262,7 +5260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -5270,7 +5268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>28</v>
       </c>
@@ -5278,7 +5276,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>22</v>
       </c>
@@ -5286,12 +5284,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>9</v>
       </c>
@@ -5320,7 +5318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>119</v>
       </c>
@@ -5344,7 +5342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>138</v>
       </c>
@@ -5367,7 +5365,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>33</v>
       </c>
@@ -5418,13 +5416,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B232" s="4"/>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B233" s="4"/>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>0</v>
       </c>
@@ -5432,7 +5430,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -5440,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2</v>
       </c>
@@ -5448,7 +5446,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -5456,7 +5454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -5464,7 +5462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -5472,7 +5470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>28</v>
       </c>
@@ -5480,7 +5478,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>22</v>
       </c>
@@ -5488,12 +5486,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>9</v>
       </c>
@@ -5522,7 +5520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>129</v>
       </c>
@@ -5546,7 +5544,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>138</v>
       </c>
@@ -5569,7 +5567,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>33</v>
       </c>
@@ -5620,10 +5618,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B248" s="4"/>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>0</v>
       </c>
@@ -5631,7 +5629,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -5639,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2</v>
       </c>
@@ -5647,7 +5645,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -5655,7 +5653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -5663,7 +5661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -5671,7 +5669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>28</v>
       </c>
@@ -5679,7 +5677,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>22</v>
       </c>
@@ -5687,12 +5685,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>9</v>
       </c>
@@ -5721,7 +5719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>121</v>
       </c>
@@ -5745,7 +5743,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>138</v>
       </c>
@@ -5768,7 +5766,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>33</v>
       </c>
@@ -5819,13 +5817,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B263" s="4"/>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B264" s="4"/>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>0</v>
       </c>
@@ -5833,7 +5831,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -5841,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>2</v>
       </c>
@@ -5849,7 +5847,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -5857,7 +5855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -5865,7 +5863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -5873,7 +5871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>28</v>
       </c>
@@ -5881,7 +5879,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>22</v>
       </c>
@@ -5889,12 +5887,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>9</v>
       </c>
@@ -5923,7 +5921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>123</v>
       </c>
@@ -5947,7 +5945,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>138</v>
       </c>
@@ -5970,7 +5968,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>33</v>
       </c>
@@ -6021,10 +6019,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="4"/>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
@@ -6032,7 +6030,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -6040,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -6048,7 +6046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -6056,7 +6054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -6064,7 +6062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -6072,7 +6070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>28</v>
       </c>
@@ -6080,7 +6078,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>22</v>
       </c>
@@ -6088,12 +6086,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>9</v>
       </c>
@@ -6122,7 +6120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>115</v>
       </c>
@@ -6146,7 +6144,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>138</v>
       </c>
@@ -6169,7 +6167,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>33</v>
       </c>
@@ -6220,10 +6218,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B294" s="4"/>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
@@ -6231,7 +6229,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6239,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>28</v>
       </c>
@@ -6247,7 +6245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2</v>
       </c>
@@ -6255,7 +6253,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6263,7 +6261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -6271,7 +6269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -6279,7 +6277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -6287,7 +6285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>28</v>
       </c>
@@ -6295,7 +6293,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>22</v>
       </c>
@@ -6303,12 +6301,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>9</v>
       </c>
@@ -6334,7 +6332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>139</v>
       </c>
@@ -6357,7 +6355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>138</v>
       </c>
@@ -6380,7 +6378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>30</v>
       </c>
@@ -6403,7 +6401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>111</v>
       </c>
@@ -6424,7 +6422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>113</v>
       </c>
@@ -6444,7 +6442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>104</v>
       </c>
@@ -6467,8 +6465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="314" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>0</v>
       </c>
@@ -6476,7 +6473,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1</v>
       </c>
@@ -6484,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2</v>
       </c>
@@ -6492,7 +6489,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -6500,7 +6497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -6508,7 +6505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -6516,7 +6513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>28</v>
       </c>
@@ -6524,7 +6521,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>22</v>
       </c>
@@ -6532,12 +6529,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -6563,7 +6560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>104</v>
       </c>
@@ -6587,7 +6584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>139</v>
       </c>
@@ -6610,7 +6607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>45</v>
       </c>
@@ -6634,7 +6631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -6658,7 +6655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>34</v>
       </c>
@@ -6682,7 +6679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>36</v>
       </c>
@@ -6706,7 +6703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>38</v>
       </c>
@@ -6754,7 +6751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>111</v>
       </c>
@@ -6776,13 +6773,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K332" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K332" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="B287" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B272" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
